--- a/CashFlow/MDB_cashflow.xlsx
+++ b/CashFlow/MDB_cashflow.xlsx
@@ -460,19 +460,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1216000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1408000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>7146000.0</v>
+        <v>17891000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>13736000.0</v>
+        <v>18852000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>16841000.0</v>
+        <v>19176000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>22556000.0</v>
